--- a/Excel_Mapping/Data/Institution_1.xlsx
+++ b/Excel_Mapping/Data/Institution_1.xlsx
@@ -199,7 +199,7 @@
     <t xml:space="preserve">heute</t>
   </si>
   <si>
-    <t xml:space="preserve">Personen,Porträt,Architektur,Bergfotografie,Flugaufnahme,Sachaufnahme,Militär,Dokumentation,private Fotografie</t>
+    <t xml:space="preserve">personen,portraet,architektur,bergfotografie,flugaufnahme</t>
   </si>
 </sst>
 </file>
@@ -209,11 +209,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="15">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -231,49 +232,82 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -377,22 +411,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -403,7 +469,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,8 +568,8 @@
   </sheetPr>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
